--- a/Excel/American Needle/2022.02.18/28.02.2022 American Needle — техничка.xlsx
+++ b/Excel/American Needle/2022.02.18/28.02.2022 American Needle — техничка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\American Needle\2022.02.18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A5D43CE-4F92-4932-89AF-C545DB1AA9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200C3EBE-919B-4D54-838D-4B884F1D6A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF44D931-A9CA-4FD1-B7C8-6D970468D2BD}"/>
   </bookViews>
@@ -579,9 +579,6 @@
     <t>Sport</t>
   </si>
   <si>
-    <t>heather gray - black</t>
-  </si>
-  <si>
     <t>серый / черный</t>
   </si>
   <si>
@@ -2451,9 +2448,6 @@
     <t>California Pace SL</t>
   </si>
   <si>
-    <t>white - black</t>
-  </si>
-  <si>
     <t>97% Полиэстер - 3% Спандекс</t>
   </si>
   <si>
@@ -2614,6 +2608,12 @@
   </si>
   <si>
     <t>gsbn</t>
+  </si>
+  <si>
+    <t>heather gray-black</t>
+  </si>
+  <si>
+    <t>white-black</t>
   </si>
 </sst>
 </file>
@@ -14585,11 +14585,11 @@
   <sheetPr codeName="Лист9">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:BD231"/>
+  <dimension ref="A1:AM231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BC1" sqref="BC1:BC1048576"/>
+      <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="98.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17438,13 +17438,13 @@
         <v>46</v>
       </c>
       <c r="J32" s="27" t="s">
+        <v>858</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="L32" s="19" t="s">
         <v>182</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>183</v>
       </c>
       <c r="M32" s="20"/>
       <c r="N32" s="13" t="s">
@@ -17502,13 +17502,13 @@
     </row>
     <row r="33" spans="1:39" s="28" customFormat="1" ht="128.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="C33" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>186</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>42</v>
@@ -17533,7 +17533,7 @@
         <v>118</v>
       </c>
       <c r="L33" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M33" s="20"/>
       <c r="N33" s="13" t="s">
@@ -17591,13 +17591,13 @@
     </row>
     <row r="34" spans="1:39" s="28" customFormat="1" ht="124.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>190</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>42</v>
@@ -17622,7 +17622,7 @@
         <v>118</v>
       </c>
       <c r="L34" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M34" s="20"/>
       <c r="N34" s="13" t="s">
@@ -17680,13 +17680,13 @@
     </row>
     <row r="35" spans="1:39" s="28" customFormat="1" ht="128.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>192</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>193</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>42</v>
@@ -17705,13 +17705,13 @@
         <v>46</v>
       </c>
       <c r="J35" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K35" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="K35" s="12" t="s">
-        <v>195</v>
-      </c>
       <c r="L35" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M35" s="20"/>
       <c r="N35" s="13" t="s">
@@ -17769,13 +17769,13 @@
     </row>
     <row r="36" spans="1:39" s="28" customFormat="1" ht="124.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="C36" s="13" t="s">
         <v>197</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>198</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>42</v>
@@ -17800,7 +17800,7 @@
         <v>118</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M36" s="20"/>
       <c r="N36" s="13" t="s">
@@ -17858,13 +17858,13 @@
     </row>
     <row r="37" spans="1:39" s="28" customFormat="1" ht="128.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>201</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>42</v>
@@ -17883,13 +17883,13 @@
         <v>46</v>
       </c>
       <c r="J37" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="K37" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="K37" s="13" t="s">
-        <v>203</v>
-      </c>
       <c r="L37" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M37" s="20"/>
       <c r="N37" s="13" t="s">
@@ -17947,13 +17947,13 @@
     </row>
     <row r="38" spans="1:39" s="28" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>206</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>42</v>
@@ -17972,13 +17972,13 @@
         <v>46</v>
       </c>
       <c r="J38" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="K38" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="K38" s="13" t="s">
-        <v>208</v>
-      </c>
       <c r="L38" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M38" s="20"/>
       <c r="N38" s="13" t="s">
@@ -18036,13 +18036,13 @@
     </row>
     <row r="39" spans="1:39" s="28" customFormat="1" ht="123.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="C39" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>42</v>
@@ -18067,7 +18067,7 @@
         <v>69</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M39" s="20"/>
       <c r="N39" s="13" t="s">
@@ -18125,13 +18125,13 @@
     </row>
     <row r="40" spans="1:39" s="28" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="C40" s="13" t="s">
         <v>213</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>214</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>42</v>
@@ -18150,13 +18150,13 @@
         <v>46</v>
       </c>
       <c r="J40" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="K40" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="K40" s="22" t="s">
-        <v>216</v>
-      </c>
       <c r="L40" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M40" s="20"/>
       <c r="N40" s="13" t="s">
@@ -18214,13 +18214,13 @@
     </row>
     <row r="41" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="C41" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>42</v>
@@ -18239,13 +18239,13 @@
         <v>46</v>
       </c>
       <c r="J41" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="K41" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="K41" s="13" t="s">
-        <v>221</v>
-      </c>
       <c r="L41" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="13" t="s">
@@ -18303,13 +18303,13 @@
     </row>
     <row r="42" spans="1:39" s="28" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="C42" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>224</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>42</v>
@@ -18328,13 +18328,13 @@
         <v>46</v>
       </c>
       <c r="J42" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="K42" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="K42" s="13" t="s">
-        <v>216</v>
-      </c>
       <c r="L42" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M42" s="20"/>
       <c r="N42" s="13" t="s">
@@ -18392,13 +18392,13 @@
     </row>
     <row r="43" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="C43" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>227</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>42</v>
@@ -18417,13 +18417,13 @@
         <v>46</v>
       </c>
       <c r="J43" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K43" s="14" t="s">
         <v>74</v>
       </c>
       <c r="L43" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M43" s="20"/>
       <c r="N43" s="13" t="s">
@@ -18481,13 +18481,13 @@
     </row>
     <row r="44" spans="1:39" s="28" customFormat="1" ht="124.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>231</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>42</v>
@@ -18506,13 +18506,13 @@
         <v>46</v>
       </c>
       <c r="J44" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K44" s="13" t="s">
         <v>84</v>
       </c>
       <c r="L44" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M44" s="20"/>
       <c r="N44" s="13" t="s">
@@ -18570,13 +18570,13 @@
     </row>
     <row r="45" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="C45" s="13" t="s">
         <v>234</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>42</v>
@@ -18595,13 +18595,13 @@
         <v>46</v>
       </c>
       <c r="J45" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="K45" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="K45" s="22" t="s">
-        <v>216</v>
-      </c>
       <c r="L45" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M45" s="20"/>
       <c r="N45" s="13" t="s">
@@ -18659,13 +18659,13 @@
     </row>
     <row r="46" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="C46" s="13" t="s">
         <v>237</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>238</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>42</v>
@@ -18690,7 +18690,7 @@
         <v>118</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M46" s="20"/>
       <c r="N46" s="13" t="s">
@@ -18748,13 +18748,13 @@
     </row>
     <row r="47" spans="1:39" s="28" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="C47" s="13" t="s">
         <v>240</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>241</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>42</v>
@@ -18779,7 +18779,7 @@
         <v>64</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M47" s="20"/>
       <c r="N47" s="13" t="s">
@@ -18837,13 +18837,13 @@
     </row>
     <row r="48" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>244</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>42</v>
@@ -18862,13 +18862,13 @@
         <v>46</v>
       </c>
       <c r="J48" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="K48" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="K48" s="14" t="s">
-        <v>246</v>
-      </c>
       <c r="L48" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M48" s="20"/>
       <c r="N48" s="13" t="s">
@@ -18926,13 +18926,13 @@
     </row>
     <row r="49" spans="1:39" s="28" customFormat="1" ht="124.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="C49" s="13" t="s">
         <v>248</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>249</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>42</v>
@@ -18957,7 +18957,7 @@
         <v>118</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M49" s="20"/>
       <c r="N49" s="13" t="s">
@@ -19015,13 +19015,13 @@
     </row>
     <row r="50" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="C50" s="13" t="s">
         <v>251</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>252</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>42</v>
@@ -19046,7 +19046,7 @@
         <v>118</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M50" s="20"/>
       <c r="N50" s="13" t="s">
@@ -19104,13 +19104,13 @@
     </row>
     <row r="51" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="C51" s="13" t="s">
         <v>254</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>255</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>42</v>
@@ -19135,7 +19135,7 @@
         <v>64</v>
       </c>
       <c r="L51" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M51" s="20"/>
       <c r="N51" s="13" t="s">
@@ -19193,13 +19193,13 @@
     </row>
     <row r="52" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="C52" s="13" t="s">
         <v>257</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>258</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>42</v>
@@ -19224,7 +19224,7 @@
         <v>64</v>
       </c>
       <c r="L52" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M52" s="20"/>
       <c r="N52" s="13" t="s">
@@ -19282,13 +19282,13 @@
     </row>
     <row r="53" spans="1:39" s="28" customFormat="1" ht="124.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="C53" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>42</v>
@@ -19313,7 +19313,7 @@
         <v>64</v>
       </c>
       <c r="L53" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M53" s="20"/>
       <c r="N53" s="13" t="s">
@@ -19371,13 +19371,13 @@
     </row>
     <row r="54" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="C54" s="13" t="s">
         <v>263</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>264</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>42</v>
@@ -19396,13 +19396,13 @@
         <v>46</v>
       </c>
       <c r="J54" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="K54" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="K54" s="22" t="s">
-        <v>216</v>
-      </c>
       <c r="L54" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M54" s="20"/>
       <c r="N54" s="13" t="s">
@@ -19460,13 +19460,13 @@
     </row>
     <row r="55" spans="1:39" s="28" customFormat="1" ht="128.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>266</v>
-      </c>
       <c r="C55" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>42</v>
@@ -19491,7 +19491,7 @@
         <v>69</v>
       </c>
       <c r="L55" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M55" s="20"/>
       <c r="N55" s="13" t="s">
@@ -19549,19 +19549,19 @@
     </row>
     <row r="56" spans="1:39" s="28" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="C56" s="13" t="s">
         <v>268</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>269</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>180</v>
@@ -19574,13 +19574,13 @@
         <v>46</v>
       </c>
       <c r="J56" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K56" s="22" t="s">
         <v>64</v>
       </c>
       <c r="L56" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M56" s="20"/>
       <c r="N56" s="13" t="s">
@@ -19638,19 +19638,19 @@
     </row>
     <row r="57" spans="1:39" s="28" customFormat="1" ht="110.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="C57" s="13" t="s">
         <v>274</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>275</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>180</v>
@@ -19669,7 +19669,7 @@
         <v>64</v>
       </c>
       <c r="L57" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M57" s="20"/>
       <c r="N57" s="13" t="s">
@@ -19727,19 +19727,19 @@
     </row>
     <row r="58" spans="1:39" s="28" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="C58" s="13" t="s">
         <v>277</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>278</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>129</v>
@@ -19752,10 +19752,10 @@
         <v>46</v>
       </c>
       <c r="J58" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="K58" s="14" t="s">
         <v>280</v>
-      </c>
-      <c r="K58" s="14" t="s">
-        <v>281</v>
       </c>
       <c r="L58" s="19" t="s">
         <v>49</v>
@@ -19816,13 +19816,13 @@
     </row>
     <row r="59" spans="1:39" s="28" customFormat="1" ht="124.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="C59" s="13" t="s">
         <v>283</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>284</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>42</v>
@@ -19841,13 +19841,13 @@
         <v>46</v>
       </c>
       <c r="J59" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="K59" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="K59" s="12" t="s">
+      <c r="L59" s="19" t="s">
         <v>286</v>
-      </c>
-      <c r="L59" s="19" t="s">
-        <v>287</v>
       </c>
       <c r="M59" s="20"/>
       <c r="N59" s="13" t="s">
@@ -19905,13 +19905,13 @@
     </row>
     <row r="60" spans="1:39" s="28" customFormat="1" ht="124.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="C60" s="13" t="s">
         <v>289</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>290</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>42</v>
@@ -19930,7 +19930,7 @@
         <v>46</v>
       </c>
       <c r="J60" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K60" s="12" t="s">
         <v>69</v>
@@ -19994,13 +19994,13 @@
     </row>
     <row r="61" spans="1:39" s="28" customFormat="1" ht="128.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="C61" s="13" t="s">
         <v>293</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>294</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>42</v>
@@ -20083,13 +20083,13 @@
     </row>
     <row r="62" spans="1:39" s="28" customFormat="1" ht="128.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B62" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="C62" s="13" t="s">
         <v>296</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>297</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>42</v>
@@ -20172,13 +20172,13 @@
     </row>
     <row r="63" spans="1:39" s="28" customFormat="1" ht="123.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="C63" s="13" t="s">
         <v>299</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>300</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>42</v>
@@ -20197,10 +20197,10 @@
         <v>46</v>
       </c>
       <c r="J63" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="K63" s="12" t="s">
         <v>301</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>302</v>
       </c>
       <c r="L63" s="19" t="s">
         <v>49</v>
@@ -20261,13 +20261,13 @@
     </row>
     <row r="64" spans="1:39" s="28" customFormat="1" ht="128.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B64" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="C64" s="13" t="s">
         <v>304</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>305</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>42</v>
@@ -20350,13 +20350,13 @@
     </row>
     <row r="65" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="C65" s="13" t="s">
         <v>307</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>308</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>42</v>
@@ -20439,13 +20439,13 @@
     </row>
     <row r="66" spans="1:39" s="28" customFormat="1" ht="128.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B66" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="C66" s="13" t="s">
         <v>310</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>311</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>42</v>
@@ -20528,13 +20528,13 @@
     </row>
     <row r="67" spans="1:39" s="28" customFormat="1" ht="133.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="C67" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>42</v>
@@ -20553,7 +20553,7 @@
         <v>46</v>
       </c>
       <c r="J67" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K67" s="14" t="s">
         <v>69</v>
@@ -20617,13 +20617,13 @@
     </row>
     <row r="68" spans="1:39" s="28" customFormat="1" ht="124.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B68" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="C68" s="13" t="s">
         <v>317</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>318</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>42</v>
@@ -20706,13 +20706,13 @@
     </row>
     <row r="69" spans="1:39" s="28" customFormat="1" ht="128.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B69" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="C69" s="13" t="s">
         <v>320</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>321</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>42</v>
@@ -20731,7 +20731,7 @@
         <v>46</v>
       </c>
       <c r="J69" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K69" s="14" t="s">
         <v>104</v>
@@ -20795,13 +20795,13 @@
     </row>
     <row r="70" spans="1:39" s="28" customFormat="1" ht="133.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B70" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="C70" s="13" t="s">
         <v>324</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>325</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>42</v>
@@ -20820,7 +20820,7 @@
         <v>46</v>
       </c>
       <c r="J70" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K70" s="14" t="s">
         <v>74</v>
@@ -20884,13 +20884,13 @@
     </row>
     <row r="71" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="C71" s="13" t="s">
         <v>328</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>329</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>42</v>
@@ -20899,7 +20899,7 @@
         <v>43</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G71" s="12" t="s">
         <v>45</v>
@@ -20909,7 +20909,7 @@
         <v>46</v>
       </c>
       <c r="J71" s="27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K71" s="12" t="s">
         <v>114</v>
@@ -20973,13 +20973,13 @@
     </row>
     <row r="72" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B72" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="C72" s="13" t="s">
         <v>333</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>334</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>42</v>
@@ -20988,7 +20988,7 @@
         <v>43</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G72" s="12" t="s">
         <v>45</v>
@@ -20998,10 +20998,10 @@
         <v>46</v>
       </c>
       <c r="J72" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="K72" s="12" t="s">
         <v>335</v>
-      </c>
-      <c r="K72" s="12" t="s">
-        <v>336</v>
       </c>
       <c r="L72" s="19" t="s">
         <v>49</v>
@@ -21062,13 +21062,13 @@
     </row>
     <row r="73" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B73" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="C73" s="13" t="s">
         <v>338</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>339</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>42</v>
@@ -21077,7 +21077,7 @@
         <v>43</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G73" s="12" t="s">
         <v>45</v>
@@ -21087,7 +21087,7 @@
         <v>46</v>
       </c>
       <c r="J73" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K73" s="12" t="s">
         <v>104</v>
@@ -21151,13 +21151,13 @@
     </row>
     <row r="74" spans="1:39" s="28" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B74" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="C74" s="13" t="s">
         <v>342</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>343</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>42</v>
@@ -21166,7 +21166,7 @@
         <v>43</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G74" s="12" t="s">
         <v>45</v>
@@ -21176,7 +21176,7 @@
         <v>46</v>
       </c>
       <c r="J74" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K74" s="12" t="s">
         <v>74</v>
@@ -21240,25 +21240,25 @@
     </row>
     <row r="75" spans="1:39" s="28" customFormat="1" ht="166.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B75" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="C75" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="D75" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="E75" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>136</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="13" t="s">
@@ -21271,11 +21271,11 @@
         <v>118</v>
       </c>
       <c r="L75" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M75" s="20"/>
       <c r="N75" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O75" s="12" t="s">
         <v>51</v>
@@ -21329,25 +21329,25 @@
     </row>
     <row r="76" spans="1:39" s="28" customFormat="1" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B76" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="C76" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="C76" s="13" t="s">
-        <v>355</v>
-      </c>
       <c r="D76" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E76" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>136</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="13" t="s">
@@ -21360,11 +21360,11 @@
         <v>118</v>
       </c>
       <c r="L76" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M76" s="20"/>
       <c r="N76" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O76" s="12" t="s">
         <v>51</v>
@@ -21418,25 +21418,25 @@
     </row>
     <row r="77" spans="1:39" s="28" customFormat="1" ht="168.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="C77" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="C77" s="13" t="s">
-        <v>358</v>
-      </c>
       <c r="D77" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E77" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="F77" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="G77" s="12" t="s">
         <v>349</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>350</v>
       </c>
       <c r="H77" s="12"/>
       <c r="I77" s="13" t="s">
@@ -21449,11 +21449,11 @@
         <v>118</v>
       </c>
       <c r="L77" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M77" s="20"/>
       <c r="N77" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O77" s="12" t="s">
         <v>51</v>
@@ -21507,25 +21507,25 @@
     </row>
     <row r="78" spans="1:39" s="28" customFormat="1" ht="173.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B78" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="C78" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>361</v>
-      </c>
       <c r="D78" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E78" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F78" s="14" t="s">
         <v>180</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H78" s="12"/>
       <c r="I78" s="13" t="s">
@@ -21538,11 +21538,11 @@
         <v>118</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M78" s="20"/>
       <c r="N78" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O78" s="12" t="s">
         <v>51</v>
@@ -21596,25 +21596,25 @@
     </row>
     <row r="79" spans="1:39" s="28" customFormat="1" ht="168.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="C79" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="C79" s="13" t="s">
-        <v>364</v>
-      </c>
       <c r="D79" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E79" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F79" s="14" t="s">
         <v>180</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="13" t="s">
@@ -21627,11 +21627,11 @@
         <v>64</v>
       </c>
       <c r="L79" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M79" s="20"/>
       <c r="N79" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O79" s="12" t="s">
         <v>51</v>
@@ -21685,25 +21685,25 @@
     </row>
     <row r="80" spans="1:39" s="28" customFormat="1" ht="173.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="C80" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="C80" s="13" t="s">
-        <v>367</v>
-      </c>
       <c r="D80" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E80" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F80" s="14" t="s">
         <v>180</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H80" s="12"/>
       <c r="I80" s="13" t="s">
@@ -21716,11 +21716,11 @@
         <v>118</v>
       </c>
       <c r="L80" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M80" s="20"/>
       <c r="N80" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O80" s="12" t="s">
         <v>51</v>
@@ -21774,25 +21774,25 @@
     </row>
     <row r="81" spans="1:39" s="28" customFormat="1" ht="164.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B81" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="C81" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="C81" s="13" t="s">
-        <v>370</v>
-      </c>
       <c r="D81" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E81" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F81" s="14" t="s">
         <v>136</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="13" t="s">
@@ -21805,11 +21805,11 @@
         <v>118</v>
       </c>
       <c r="L81" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M81" s="20"/>
       <c r="N81" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O81" s="12" t="s">
         <v>51</v>
@@ -21863,25 +21863,25 @@
     </row>
     <row r="82" spans="1:39" s="28" customFormat="1" ht="168.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B82" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="C82" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="C82" s="13" t="s">
-        <v>373</v>
-      </c>
       <c r="D82" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E82" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F82" s="14" t="s">
         <v>180</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="13" t="s">
@@ -21894,11 +21894,11 @@
         <v>64</v>
       </c>
       <c r="L82" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M82" s="20"/>
       <c r="N82" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O82" s="12" t="s">
         <v>51</v>
@@ -21952,25 +21952,25 @@
     </row>
     <row r="83" spans="1:39" s="28" customFormat="1" ht="164.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="C83" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="C83" s="13" t="s">
-        <v>376</v>
-      </c>
       <c r="D83" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E83" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F83" s="14" t="s">
         <v>180</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="13" t="s">
@@ -21983,11 +21983,11 @@
         <v>118</v>
       </c>
       <c r="L83" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M83" s="20"/>
       <c r="N83" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O83" s="12" t="s">
         <v>51</v>
@@ -22041,25 +22041,25 @@
     </row>
     <row r="84" spans="1:39" s="28" customFormat="1" ht="168.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B84" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="C84" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>379</v>
-      </c>
       <c r="D84" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E84" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F84" s="14" t="s">
         <v>180</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H84" s="12"/>
       <c r="I84" s="13" t="s">
@@ -22072,11 +22072,11 @@
         <v>69</v>
       </c>
       <c r="L84" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M84" s="20"/>
       <c r="N84" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O84" s="12" t="s">
         <v>51</v>
@@ -22130,42 +22130,42 @@
     </row>
     <row r="85" spans="1:39" s="28" customFormat="1" ht="167.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="C85" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="C85" s="13" t="s">
-        <v>382</v>
-      </c>
       <c r="D85" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E85" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F85" s="14" t="s">
         <v>180</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H85" s="12"/>
       <c r="I85" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J85" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="K85" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="K85" s="14" t="s">
-        <v>384</v>
-      </c>
       <c r="L85" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M85" s="20"/>
       <c r="N85" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O85" s="12" t="s">
         <v>51</v>
@@ -22219,25 +22219,25 @@
     </row>
     <row r="86" spans="1:39" s="28" customFormat="1" ht="168.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B86" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="C86" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>387</v>
-      </c>
       <c r="D86" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E86" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F86" s="14" t="s">
         <v>180</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H86" s="12"/>
       <c r="I86" s="13" t="s">
@@ -22250,11 +22250,11 @@
         <v>64</v>
       </c>
       <c r="L86" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M86" s="20"/>
       <c r="N86" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O86" s="12" t="s">
         <v>51</v>
@@ -22308,25 +22308,25 @@
     </row>
     <row r="87" spans="1:39" s="28" customFormat="1" ht="173.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="C87" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="D87" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F87" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="D87" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="E87" s="12" t="s">
+      <c r="G87" s="12" t="s">
         <v>349</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>350</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="13" t="s">
@@ -22339,11 +22339,11 @@
         <v>118</v>
       </c>
       <c r="L87" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M87" s="20"/>
       <c r="N87" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O87" s="12" t="s">
         <v>51</v>
@@ -22397,25 +22397,25 @@
     </row>
     <row r="88" spans="1:39" s="28" customFormat="1" ht="169.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="C88" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="C88" s="13" t="s">
-        <v>394</v>
-      </c>
       <c r="D88" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E88" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F88" s="14" t="s">
         <v>180</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H88" s="12"/>
       <c r="I88" s="13" t="s">
@@ -22428,11 +22428,11 @@
         <v>118</v>
       </c>
       <c r="L88" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M88" s="20"/>
       <c r="N88" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O88" s="12" t="s">
         <v>51</v>
@@ -22486,25 +22486,25 @@
     </row>
     <row r="89" spans="1:39" s="28" customFormat="1" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B89" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="C89" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="C89" s="13" t="s">
-        <v>397</v>
-      </c>
       <c r="D89" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E89" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F89" s="14" t="s">
         <v>136</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H89" s="12"/>
       <c r="I89" s="13" t="s">
@@ -22517,11 +22517,11 @@
         <v>118</v>
       </c>
       <c r="L89" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M89" s="20"/>
       <c r="N89" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O89" s="12" t="s">
         <v>51</v>
@@ -22575,42 +22575,42 @@
     </row>
     <row r="90" spans="1:39" s="28" customFormat="1" ht="173.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B90" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="C90" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="C90" s="13" t="s">
-        <v>400</v>
-      </c>
       <c r="D90" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E90" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F90" s="14" t="s">
         <v>180</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J90" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K90" s="13" t="s">
         <v>69</v>
       </c>
       <c r="L90" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M90" s="20"/>
       <c r="N90" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O90" s="12" t="s">
         <v>51</v>
@@ -22664,25 +22664,25 @@
     </row>
     <row r="91" spans="1:39" s="28" customFormat="1" ht="164.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B91" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="C91" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="C91" s="13" t="s">
-        <v>404</v>
-      </c>
       <c r="D91" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E91" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F91" s="14" t="s">
         <v>180</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H91" s="12"/>
       <c r="I91" s="13" t="s">
@@ -22695,11 +22695,11 @@
         <v>64</v>
       </c>
       <c r="L91" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M91" s="20"/>
       <c r="N91" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O91" s="12" t="s">
         <v>51</v>
@@ -22753,42 +22753,42 @@
     </row>
     <row r="92" spans="1:39" s="28" customFormat="1" ht="170.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B92" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="C92" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="C92" s="13" t="s">
-        <v>407</v>
-      </c>
       <c r="D92" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E92" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F92" s="14" t="s">
         <v>162</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H92" s="12"/>
       <c r="I92" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J92" s="27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K92" s="22" t="s">
         <v>131</v>
       </c>
       <c r="L92" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M92" s="20"/>
       <c r="N92" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O92" s="12" t="s">
         <v>51</v>
@@ -22842,25 +22842,25 @@
     </row>
     <row r="93" spans="1:39" s="28" customFormat="1" ht="167.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B93" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="C93" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="C93" s="13" t="s">
-        <v>411</v>
-      </c>
       <c r="D93" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E93" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F93" s="14" t="s">
         <v>180</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H93" s="12"/>
       <c r="I93" s="13" t="s">
@@ -22873,11 +22873,11 @@
         <v>69</v>
       </c>
       <c r="L93" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M93" s="20"/>
       <c r="N93" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O93" s="12" t="s">
         <v>51</v>
@@ -22931,25 +22931,25 @@
     </row>
     <row r="94" spans="1:39" s="28" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B94" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="C94" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="C94" s="13" t="s">
-        <v>414</v>
-      </c>
       <c r="D94" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E94" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="F94" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="G94" s="12" t="s">
         <v>349</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>350</v>
       </c>
       <c r="H94" s="12"/>
       <c r="I94" s="13" t="s">
@@ -22962,11 +22962,11 @@
         <v>118</v>
       </c>
       <c r="L94" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M94" s="20"/>
       <c r="N94" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O94" s="12" t="s">
         <v>51</v>
@@ -23020,25 +23020,25 @@
     </row>
     <row r="95" spans="1:39" s="28" customFormat="1" ht="169.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B95" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="C95" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="C95" s="13" t="s">
-        <v>417</v>
-      </c>
       <c r="D95" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E95" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F95" s="14" t="s">
         <v>180</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H95" s="12"/>
       <c r="I95" s="13" t="s">
@@ -23051,11 +23051,11 @@
         <v>118</v>
       </c>
       <c r="L95" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M95" s="20"/>
       <c r="N95" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O95" s="12" t="s">
         <v>51</v>
@@ -23109,25 +23109,25 @@
     </row>
     <row r="96" spans="1:39" s="28" customFormat="1" ht="173.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B96" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="C96" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="C96" s="13" t="s">
-        <v>420</v>
-      </c>
       <c r="D96" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E96" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F96" s="14" t="s">
         <v>180</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H96" s="12"/>
       <c r="I96" s="13" t="s">
@@ -23140,11 +23140,11 @@
         <v>118</v>
       </c>
       <c r="L96" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M96" s="20"/>
       <c r="N96" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O96" s="12" t="s">
         <v>51</v>
@@ -23198,25 +23198,25 @@
     </row>
     <row r="97" spans="1:39" s="28" customFormat="1" ht="172.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B97" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="C97" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="C97" s="13" t="s">
-        <v>423</v>
-      </c>
       <c r="D97" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E97" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="F97" s="14" t="s">
         <v>180</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H97" s="12"/>
       <c r="I97" s="13" t="s">
@@ -23229,11 +23229,11 @@
         <v>118</v>
       </c>
       <c r="L97" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M97" s="20"/>
       <c r="N97" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O97" s="12" t="s">
         <v>51</v>
@@ -23287,25 +23287,25 @@
     </row>
     <row r="98" spans="1:39" s="28" customFormat="1" ht="164.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B98" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="B98" s="12" t="s">
-        <v>425</v>
-      </c>
       <c r="C98" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F98" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="D98" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="E98" s="12" t="s">
+      <c r="G98" s="12" t="s">
         <v>349</v>
-      </c>
-      <c r="F98" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>350</v>
       </c>
       <c r="H98" s="12"/>
       <c r="I98" s="13" t="s">
@@ -23318,11 +23318,11 @@
         <v>64</v>
       </c>
       <c r="L98" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M98" s="20"/>
       <c r="N98" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O98" s="12" t="s">
         <v>51</v>
@@ -23376,13 +23376,13 @@
     </row>
     <row r="99" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="C99" s="13" t="s">
         <v>427</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>428</v>
       </c>
       <c r="D99" s="13" t="s">
         <v>42</v>
@@ -23391,7 +23391,7 @@
         <v>43</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G99" s="12" t="s">
         <v>45</v>
@@ -23407,7 +23407,7 @@
         <v>118</v>
       </c>
       <c r="L99" s="19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M99" s="20"/>
       <c r="N99" s="13" t="s">
@@ -23465,13 +23465,13 @@
     </row>
     <row r="100" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="B100" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="C100" s="13" t="s">
         <v>431</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>432</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>42</v>
@@ -23554,13 +23554,13 @@
     </row>
     <row r="101" spans="1:39" s="28" customFormat="1" ht="124.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B101" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="C101" s="13" t="s">
         <v>434</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>435</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>42</v>
@@ -23643,13 +23643,13 @@
     </row>
     <row r="102" spans="1:39" s="28" customFormat="1" ht="124.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B102" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="C102" s="13" t="s">
         <v>437</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>438</v>
       </c>
       <c r="D102" s="13" t="s">
         <v>42</v>
@@ -23668,7 +23668,7 @@
         <v>46</v>
       </c>
       <c r="J102" s="27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K102" s="22" t="s">
         <v>74</v>
@@ -23732,13 +23732,13 @@
     </row>
     <row r="103" spans="1:39" s="28" customFormat="1" ht="125.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B103" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="C103" s="13" t="s">
         <v>441</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>442</v>
       </c>
       <c r="D103" s="13" t="s">
         <v>42</v>
@@ -23821,13 +23821,13 @@
     </row>
     <row r="104" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="B104" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="C104" s="13" t="s">
         <v>444</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>445</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>42</v>
@@ -23910,19 +23910,19 @@
     </row>
     <row r="105" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B105" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="C105" s="13" t="s">
         <v>447</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>448</v>
       </c>
       <c r="D105" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F105" s="14" t="s">
         <v>180</v>
@@ -23941,7 +23941,7 @@
         <v>64</v>
       </c>
       <c r="L105" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M105" s="20"/>
       <c r="N105" s="13" t="s">
@@ -23999,19 +23999,19 @@
     </row>
     <row r="106" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B106" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="C106" s="13" t="s">
         <v>451</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>452</v>
       </c>
       <c r="D106" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F106" s="22" t="s">
         <v>180</v>
@@ -24024,13 +24024,13 @@
         <v>46</v>
       </c>
       <c r="J106" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="K106" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="K106" s="22" t="s">
-        <v>454</v>
-      </c>
       <c r="L106" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M106" s="20"/>
       <c r="N106" s="13" t="s">
@@ -24088,19 +24088,19 @@
     </row>
     <row r="107" spans="1:39" s="28" customFormat="1" ht="101.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B107" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="C107" s="13" t="s">
         <v>456</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>457</v>
       </c>
       <c r="D107" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F107" s="22" t="s">
         <v>180</v>
@@ -24113,13 +24113,13 @@
         <v>46</v>
       </c>
       <c r="J107" s="27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K107" s="22" t="s">
         <v>74</v>
       </c>
       <c r="L107" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M107" s="20"/>
       <c r="N107" s="13" t="s">
@@ -24177,19 +24177,19 @@
     </row>
     <row r="108" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="B108" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="C108" s="13" t="s">
         <v>460</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>461</v>
       </c>
       <c r="D108" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F108" s="22" t="s">
         <v>180</v>
@@ -24202,13 +24202,13 @@
         <v>46</v>
       </c>
       <c r="J108" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="K108" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="K108" s="22" t="s">
-        <v>463</v>
-      </c>
       <c r="L108" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M108" s="20"/>
       <c r="N108" s="13" t="s">
@@ -24266,13 +24266,13 @@
     </row>
     <row r="109" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B109" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="C109" s="13" t="s">
         <v>465</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>466</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>42</v>
@@ -24355,13 +24355,13 @@
     </row>
     <row r="110" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B110" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="C110" s="13" t="s">
         <v>468</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>469</v>
       </c>
       <c r="D110" s="13" t="s">
         <v>42</v>
@@ -24444,13 +24444,13 @@
     </row>
     <row r="111" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B111" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="C111" s="13" t="s">
         <v>471</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>472</v>
       </c>
       <c r="D111" s="13" t="s">
         <v>42</v>
@@ -24469,7 +24469,7 @@
         <v>46</v>
       </c>
       <c r="J111" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K111" s="12" t="s">
         <v>74</v>
@@ -24533,13 +24533,13 @@
     </row>
     <row r="112" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B112" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="C112" s="13" t="s">
         <v>474</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>475</v>
       </c>
       <c r="D112" s="13" t="s">
         <v>42</v>
@@ -24558,10 +24558,10 @@
         <v>46</v>
       </c>
       <c r="J112" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L112" s="19" t="s">
         <v>49</v>
@@ -24622,13 +24622,13 @@
     </row>
     <row r="113" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B113" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="C113" s="13" t="s">
         <v>478</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>479</v>
       </c>
       <c r="D113" s="13" t="s">
         <v>42</v>
@@ -24711,13 +24711,13 @@
     </row>
     <row r="114" spans="1:39" s="28" customFormat="1" ht="121.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B114" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="C114" s="13" t="s">
         <v>481</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>482</v>
       </c>
       <c r="D114" s="13" t="s">
         <v>42</v>
@@ -24800,13 +24800,13 @@
     </row>
     <row r="115" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B115" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="C115" s="13" t="s">
         <v>481</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>482</v>
       </c>
       <c r="D115" s="13" t="s">
         <v>42</v>
@@ -24889,13 +24889,13 @@
     </row>
     <row r="116" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B116" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="C116" s="13" t="s">
         <v>485</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>486</v>
       </c>
       <c r="D116" s="13" t="s">
         <v>42</v>
@@ -24914,7 +24914,7 @@
         <v>46</v>
       </c>
       <c r="J116" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K116" s="22" t="s">
         <v>148</v>
@@ -24978,13 +24978,13 @@
     </row>
     <row r="117" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="C117" s="13" t="s">
         <v>489</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>490</v>
       </c>
       <c r="D117" s="13" t="s">
         <v>42</v>
@@ -25067,13 +25067,13 @@
     </row>
     <row r="118" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B118" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="C118" s="13" t="s">
         <v>492</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>493</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>42</v>
@@ -25156,13 +25156,13 @@
     </row>
     <row r="119" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B119" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="C119" s="13" t="s">
         <v>495</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>496</v>
       </c>
       <c r="D119" s="13" t="s">
         <v>42</v>
@@ -25245,13 +25245,13 @@
     </row>
     <row r="120" spans="1:39" s="28" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B120" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="C120" s="13" t="s">
         <v>498</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>499</v>
       </c>
       <c r="D120" s="13" t="s">
         <v>42</v>
@@ -25334,13 +25334,13 @@
     </row>
     <row r="121" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B121" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="C121" s="13" t="s">
         <v>501</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>502</v>
       </c>
       <c r="D121" s="13" t="s">
         <v>42</v>
@@ -25423,13 +25423,13 @@
     </row>
     <row r="122" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B122" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="C122" s="13" t="s">
         <v>504</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>505</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>42</v>
@@ -25448,7 +25448,7 @@
         <v>46</v>
       </c>
       <c r="J122" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K122" s="13" t="s">
         <v>69</v>
@@ -25512,13 +25512,13 @@
     </row>
     <row r="123" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B123" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="C123" s="13" t="s">
         <v>508</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>509</v>
       </c>
       <c r="D123" s="13" t="s">
         <v>42</v>
@@ -25601,13 +25601,13 @@
     </row>
     <row r="124" spans="1:39" s="28" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="B124" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="C124" s="13" t="s">
         <v>511</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>512</v>
       </c>
       <c r="D124" s="13" t="s">
         <v>42</v>
@@ -25690,13 +25690,13 @@
     </row>
     <row r="125" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="B125" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="C125" s="13" t="s">
         <v>514</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>515</v>
       </c>
       <c r="D125" s="13" t="s">
         <v>42</v>
@@ -25779,19 +25779,19 @@
     </row>
     <row r="126" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="B126" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="C126" s="13" t="s">
         <v>517</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>518</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F126" s="22" t="s">
         <v>180</v>
@@ -25810,7 +25810,7 @@
         <v>64</v>
       </c>
       <c r="L126" s="31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M126" s="20"/>
       <c r="N126" s="13" t="s">
@@ -25868,19 +25868,19 @@
     </row>
     <row r="127" spans="1:39" s="28" customFormat="1" ht="133.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="B127" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="C127" s="13" t="s">
         <v>522</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>523</v>
       </c>
       <c r="D127" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F127" s="14" t="s">
         <v>180</v>
@@ -25957,19 +25957,19 @@
     </row>
     <row r="128" spans="1:39" s="28" customFormat="1" ht="133.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B128" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="C128" s="13" t="s">
         <v>525</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>526</v>
       </c>
       <c r="D128" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F128" s="14" t="s">
         <v>180</v>
@@ -26046,19 +26046,19 @@
     </row>
     <row r="129" spans="1:39" s="28" customFormat="1" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B129" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="C129" s="13" t="s">
         <v>528</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>529</v>
       </c>
       <c r="D129" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F129" s="14" t="s">
         <v>180</v>
@@ -26135,19 +26135,19 @@
     </row>
     <row r="130" spans="1:39" s="28" customFormat="1" ht="133.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B130" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="C130" s="13" t="s">
         <v>531</v>
-      </c>
-      <c r="C130" s="13" t="s">
-        <v>532</v>
       </c>
       <c r="D130" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F130" s="14" t="s">
         <v>180</v>
@@ -26224,42 +26224,42 @@
     </row>
     <row r="131" spans="1:39" s="28" customFormat="1" ht="207.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B131" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="C131" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="D131" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E131" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="D131" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>536</v>
-      </c>
       <c r="F131" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H131" s="12"/>
       <c r="I131" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J131" s="27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K131" s="13" t="s">
         <v>64</v>
       </c>
       <c r="L131" s="31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M131" s="20"/>
       <c r="N131" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O131" s="13" t="s">
         <v>51</v>
@@ -26284,13 +26284,13 @@
         <v>33</v>
       </c>
       <c r="AE131" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF131" s="22" t="s">
         <v>53</v>
       </c>
       <c r="AG131" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AH131" s="23">
         <v>0.1</v>
@@ -26313,13 +26313,13 @@
     </row>
     <row r="132" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="B132" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="C132" s="13" t="s">
         <v>542</v>
-      </c>
-      <c r="C132" s="13" t="s">
-        <v>543</v>
       </c>
       <c r="D132" s="13" t="s">
         <v>42</v>
@@ -26338,10 +26338,10 @@
         <v>46</v>
       </c>
       <c r="J132" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K132" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L132" s="19" t="s">
         <v>49</v>
@@ -26402,13 +26402,13 @@
     </row>
     <row r="133" spans="1:39" s="28" customFormat="1" ht="124.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="B133" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="C133" s="13" t="s">
         <v>546</v>
-      </c>
-      <c r="C133" s="13" t="s">
-        <v>547</v>
       </c>
       <c r="D133" s="13" t="s">
         <v>42</v>
@@ -26491,13 +26491,13 @@
     </row>
     <row r="134" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="B134" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="C134" s="13" t="s">
         <v>549</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>550</v>
       </c>
       <c r="D134" s="13" t="s">
         <v>42</v>
@@ -26580,13 +26580,13 @@
     </row>
     <row r="135" spans="1:39" s="28" customFormat="1" ht="127.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="B135" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="C135" s="13" t="s">
         <v>552</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>553</v>
       </c>
       <c r="D135" s="13" t="s">
         <v>42</v>
@@ -26605,10 +26605,10 @@
         <v>46</v>
       </c>
       <c r="J135" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="K135" s="14" t="s">
         <v>554</v>
-      </c>
-      <c r="K135" s="14" t="s">
-        <v>555</v>
       </c>
       <c r="L135" s="19" t="s">
         <v>49</v>
@@ -26669,42 +26669,42 @@
     </row>
     <row r="136" spans="1:39" s="28" customFormat="1" ht="208.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="B136" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="C136" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="C136" s="13" t="s">
-        <v>558</v>
-      </c>
       <c r="D136" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E136" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F136" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H136" s="12"/>
       <c r="I136" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J136" s="27" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K136" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L136" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M136" s="20"/>
       <c r="N136" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O136" s="13" t="s">
         <v>51</v>
@@ -26729,13 +26729,13 @@
         <v>19</v>
       </c>
       <c r="AE136" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF136" s="22" t="s">
         <v>53</v>
       </c>
       <c r="AG136" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AH136" s="23">
         <v>0.1</v>
@@ -26758,19 +26758,19 @@
     </row>
     <row r="137" spans="1:39" s="28" customFormat="1" ht="109.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="B137" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="C137" s="13" t="s">
         <v>561</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>562</v>
       </c>
       <c r="D137" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F137" s="22" t="s">
         <v>180</v>
@@ -26783,13 +26783,13 @@
         <v>46</v>
       </c>
       <c r="J137" s="27" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K137" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L137" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M137" s="20"/>
       <c r="N137" s="13" t="s">
@@ -26847,19 +26847,19 @@
     </row>
     <row r="138" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B138" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="C138" s="13" t="s">
         <v>565</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>566</v>
       </c>
       <c r="D138" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F138" s="22" t="s">
         <v>180</v>
@@ -26872,13 +26872,13 @@
         <v>46</v>
       </c>
       <c r="J138" s="27" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K138" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L138" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M138" s="20"/>
       <c r="N138" s="13" t="s">
@@ -26936,19 +26936,19 @@
     </row>
     <row r="139" spans="1:39" s="28" customFormat="1" ht="111.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="B139" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="C139" s="13" t="s">
         <v>569</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>570</v>
       </c>
       <c r="D139" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F139" s="14" t="s">
         <v>180</v>
@@ -26961,13 +26961,13 @@
         <v>46</v>
       </c>
       <c r="J139" s="27" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K139" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L139" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M139" s="20"/>
       <c r="N139" s="13" t="s">
@@ -27025,13 +27025,13 @@
     </row>
     <row r="140" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="B140" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="C140" s="13" t="s">
         <v>573</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>574</v>
       </c>
       <c r="D140" s="13" t="s">
         <v>42</v>
@@ -27040,7 +27040,7 @@
         <v>128</v>
       </c>
       <c r="F140" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G140" s="13" t="s">
         <v>45</v>
@@ -27050,13 +27050,13 @@
         <v>46</v>
       </c>
       <c r="J140" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K140" s="13" t="s">
         <v>118</v>
       </c>
       <c r="L140" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M140" s="20"/>
       <c r="N140" s="13" t="s">
@@ -27114,22 +27114,22 @@
     </row>
     <row r="141" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="B141" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="C141" s="13" t="s">
         <v>578</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>579</v>
       </c>
       <c r="D141" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F141" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G141" s="13" t="s">
         <v>45</v>
@@ -27139,13 +27139,13 @@
         <v>46</v>
       </c>
       <c r="J141" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K141" s="13" t="s">
         <v>118</v>
       </c>
       <c r="L141" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M141" s="20"/>
       <c r="N141" s="13" t="s">
@@ -27203,22 +27203,22 @@
     </row>
     <row r="142" spans="1:39" s="28" customFormat="1" ht="124.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B142" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="C142" s="13" t="s">
         <v>581</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>582</v>
       </c>
       <c r="D142" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G142" s="12" t="s">
         <v>45</v>
@@ -27228,10 +27228,10 @@
         <v>46</v>
       </c>
       <c r="J142" s="27" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K142" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L142" s="19" t="s">
         <v>49</v>
@@ -27292,19 +27292,19 @@
     </row>
     <row r="143" spans="1:39" s="28" customFormat="1" ht="123.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="B143" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="B143" s="12" t="s">
+      <c r="C143" s="13" t="s">
         <v>585</v>
-      </c>
-      <c r="C143" s="13" t="s">
-        <v>586</v>
       </c>
       <c r="D143" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F143" s="12" t="s">
         <v>162</v>
@@ -27317,7 +27317,7 @@
         <v>46</v>
       </c>
       <c r="J143" s="27" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K143" s="12" t="s">
         <v>74</v>
@@ -27381,22 +27381,22 @@
     </row>
     <row r="144" spans="1:39" s="28" customFormat="1" ht="123.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B144" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="B144" s="12" t="s">
+      <c r="C144" s="13" t="s">
         <v>589</v>
-      </c>
-      <c r="C144" s="13" t="s">
-        <v>590</v>
       </c>
       <c r="D144" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G144" s="12" t="s">
         <v>45</v>
@@ -27406,7 +27406,7 @@
         <v>46</v>
       </c>
       <c r="J144" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K144" s="12" t="s">
         <v>69</v>
@@ -27470,22 +27470,22 @@
     </row>
     <row r="145" spans="1:39" s="28" customFormat="1" ht="127.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="B145" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="B145" s="12" t="s">
+      <c r="C145" s="13" t="s">
         <v>592</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>593</v>
       </c>
       <c r="D145" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G145" s="12" t="s">
         <v>45</v>
@@ -27495,10 +27495,10 @@
         <v>46</v>
       </c>
       <c r="J145" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="K145" s="12" t="s">
         <v>594</v>
-      </c>
-      <c r="K145" s="12" t="s">
-        <v>595</v>
       </c>
       <c r="L145" s="19" t="s">
         <v>49</v>
@@ -27559,22 +27559,22 @@
     </row>
     <row r="146" spans="1:39" s="28" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="B146" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="C146" s="13" t="s">
         <v>597</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>598</v>
       </c>
       <c r="D146" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G146" s="12" t="s">
         <v>45</v>
@@ -27584,10 +27584,10 @@
         <v>46</v>
       </c>
       <c r="J146" s="27" t="s">
+        <v>598</v>
+      </c>
+      <c r="K146" s="12" t="s">
         <v>599</v>
-      </c>
-      <c r="K146" s="12" t="s">
-        <v>600</v>
       </c>
       <c r="L146" s="19" t="s">
         <v>49</v>
@@ -27648,22 +27648,22 @@
     </row>
     <row r="147" spans="1:39" s="28" customFormat="1" ht="124.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="B147" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="B147" s="12" t="s">
-        <v>602</v>
-      </c>
       <c r="C147" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D147" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G147" s="13" t="s">
         <v>45</v>
@@ -27673,13 +27673,13 @@
         <v>46</v>
       </c>
       <c r="J147" s="27" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K147" s="13" t="s">
         <v>118</v>
       </c>
       <c r="L147" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M147" s="20"/>
       <c r="N147" s="13" t="s">
@@ -27737,19 +27737,19 @@
     </row>
     <row r="148" spans="1:39" s="28" customFormat="1" ht="124.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="B148" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="B148" s="12" t="s">
-        <v>605</v>
-      </c>
       <c r="C148" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D148" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F148" s="12" t="s">
         <v>162</v>
@@ -27762,7 +27762,7 @@
         <v>46</v>
       </c>
       <c r="J148" s="27" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K148" s="12" t="s">
         <v>164</v>
@@ -27826,13 +27826,13 @@
     </row>
     <row r="149" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B149" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="C149" s="13" t="s">
         <v>608</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>609</v>
       </c>
       <c r="D149" s="13" t="s">
         <v>42</v>
@@ -27841,7 +27841,7 @@
         <v>128</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G149" s="13" t="s">
         <v>45</v>
@@ -27851,10 +27851,10 @@
         <v>46</v>
       </c>
       <c r="J149" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K149" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L149" s="31" t="s">
         <v>132</v>
@@ -27915,13 +27915,13 @@
     </row>
     <row r="150" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B150" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="C150" s="13" t="s">
         <v>612</v>
-      </c>
-      <c r="C150" s="13" t="s">
-        <v>613</v>
       </c>
       <c r="D150" s="13" t="s">
         <v>42</v>
@@ -27930,7 +27930,7 @@
         <v>128</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G150" s="13" t="s">
         <v>45</v>
@@ -27940,7 +27940,7 @@
         <v>46</v>
       </c>
       <c r="J150" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K150" s="13" t="s">
         <v>148</v>
@@ -28004,13 +28004,13 @@
     </row>
     <row r="151" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="B151" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="B151" s="12" t="s">
+      <c r="C151" s="13" t="s">
         <v>615</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>616</v>
       </c>
       <c r="D151" s="13" t="s">
         <v>42</v>
@@ -28019,7 +28019,7 @@
         <v>128</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G151" s="12" t="s">
         <v>45</v>
@@ -28093,13 +28093,13 @@
     </row>
     <row r="152" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="B152" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="C152" s="13" t="s">
         <v>618</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>619</v>
       </c>
       <c r="D152" s="13" t="s">
         <v>42</v>
@@ -28118,10 +28118,10 @@
         <v>46</v>
       </c>
       <c r="J152" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="K152" s="13" t="s">
         <v>620</v>
-      </c>
-      <c r="K152" s="13" t="s">
-        <v>621</v>
       </c>
       <c r="L152" s="31" t="s">
         <v>132</v>
@@ -28182,22 +28182,22 @@
     </row>
     <row r="153" spans="1:39" s="28" customFormat="1" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="B153" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="B153" s="12" t="s">
+      <c r="C153" s="13" t="s">
         <v>623</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>624</v>
       </c>
       <c r="D153" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G153" s="12" t="s">
         <v>45</v>
@@ -28271,13 +28271,13 @@
     </row>
     <row r="154" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="B154" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="B154" s="12" t="s">
+      <c r="C154" s="13" t="s">
         <v>626</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>627</v>
       </c>
       <c r="D154" s="13" t="s">
         <v>42</v>
@@ -28296,7 +28296,7 @@
         <v>46</v>
       </c>
       <c r="J154" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K154" s="13" t="s">
         <v>118</v>
@@ -28360,19 +28360,19 @@
     </row>
     <row r="155" spans="1:39" s="28" customFormat="1" ht="108.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="B155" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="B155" s="12" t="s">
+      <c r="C155" s="13" t="s">
         <v>629</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>630</v>
       </c>
       <c r="D155" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E155" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F155" s="13" t="s">
         <v>180</v>
@@ -28385,13 +28385,13 @@
         <v>46</v>
       </c>
       <c r="J155" s="27" t="s">
+        <v>630</v>
+      </c>
+      <c r="K155" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="K155" s="13" t="s">
-        <v>632</v>
-      </c>
       <c r="L155" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M155" s="12"/>
       <c r="N155" s="13" t="s">
@@ -28449,13 +28449,13 @@
     </row>
     <row r="156" spans="1:39" s="28" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="B156" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="B156" s="12" t="s">
-        <v>634</v>
-      </c>
       <c r="C156" s="13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D156" s="13" t="s">
         <v>42</v>
@@ -28464,7 +28464,7 @@
         <v>128</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G156" s="13" t="s">
         <v>45</v>
@@ -28474,7 +28474,7 @@
         <v>46</v>
       </c>
       <c r="J156" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K156" s="13" t="s">
         <v>118</v>
@@ -28538,13 +28538,13 @@
     </row>
     <row r="157" spans="1:39" s="28" customFormat="1" ht="137.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="B157" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="C157" s="13" t="s">
         <v>636</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>637</v>
       </c>
       <c r="D157" s="13" t="s">
         <v>42</v>
@@ -28627,13 +28627,13 @@
     </row>
     <row r="158" spans="1:39" s="28" customFormat="1" ht="123.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="B158" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="B158" s="12" t="s">
+      <c r="C158" s="13" t="s">
         <v>639</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>640</v>
       </c>
       <c r="D158" s="13" t="s">
         <v>42</v>
@@ -28716,13 +28716,13 @@
     </row>
     <row r="159" spans="1:39" s="28" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="B159" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="B159" s="12" t="s">
+      <c r="C159" s="13" t="s">
         <v>642</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>643</v>
       </c>
       <c r="D159" s="13" t="s">
         <v>42</v>
@@ -28805,13 +28805,13 @@
     </row>
     <row r="160" spans="1:39" s="28" customFormat="1" ht="112.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="B160" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="B160" s="12" t="s">
-        <v>645</v>
-      </c>
       <c r="C160" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D160" s="13" t="s">
         <v>42</v>
@@ -28820,7 +28820,7 @@
         <v>128</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G160" s="13" t="s">
         <v>45</v>
@@ -28830,7 +28830,7 @@
         <v>46</v>
       </c>
       <c r="J160" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K160" s="13" t="s">
         <v>118</v>
@@ -28894,13 +28894,13 @@
     </row>
     <row r="161" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="B161" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="B161" s="12" t="s">
+      <c r="C161" s="13" t="s">
         <v>647</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>648</v>
       </c>
       <c r="D161" s="13" t="s">
         <v>42</v>
@@ -28909,7 +28909,7 @@
         <v>43</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G161" s="12" t="s">
         <v>45</v>
@@ -28919,10 +28919,10 @@
         <v>46</v>
       </c>
       <c r="J161" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="K161" s="12" t="s">
         <v>383</v>
-      </c>
-      <c r="K161" s="12" t="s">
-        <v>384</v>
       </c>
       <c r="L161" s="19" t="s">
         <v>49</v>
@@ -28983,13 +28983,13 @@
     </row>
     <row r="162" spans="1:39" s="28" customFormat="1" ht="128.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="B162" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="B162" s="12" t="s">
+      <c r="C162" s="13" t="s">
         <v>650</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>651</v>
       </c>
       <c r="D162" s="13" t="s">
         <v>42</v>
@@ -29072,13 +29072,13 @@
     </row>
     <row r="163" spans="1:39" s="28" customFormat="1" ht="123.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="B163" s="12" t="s">
         <v>652</v>
       </c>
-      <c r="B163" s="12" t="s">
+      <c r="C163" s="13" t="s">
         <v>653</v>
-      </c>
-      <c r="C163" s="13" t="s">
-        <v>654</v>
       </c>
       <c r="D163" s="13" t="s">
         <v>42</v>
@@ -29161,13 +29161,13 @@
     </row>
     <row r="164" spans="1:39" s="28" customFormat="1" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="B164" s="12" t="s">
         <v>655</v>
       </c>
-      <c r="B164" s="12" t="s">
+      <c r="C164" s="13" t="s">
         <v>656</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>657</v>
       </c>
       <c r="D164" s="13" t="s">
         <v>42</v>
@@ -29250,13 +29250,13 @@
     </row>
     <row r="165" spans="1:39" s="28" customFormat="1" ht="123.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="B165" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="B165" s="12" t="s">
+      <c r="C165" s="13" t="s">
         <v>659</v>
-      </c>
-      <c r="C165" s="13" t="s">
-        <v>660</v>
       </c>
       <c r="D165" s="13" t="s">
         <v>42</v>
@@ -29339,13 +29339,13 @@
     </row>
     <row r="166" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="B166" s="12" t="s">
         <v>661</v>
       </c>
-      <c r="B166" s="12" t="s">
+      <c r="C166" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>663</v>
       </c>
       <c r="D166" s="13" t="s">
         <v>42</v>
@@ -29428,13 +29428,13 @@
     </row>
     <row r="167" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="B167" s="12" t="s">
         <v>664</v>
       </c>
-      <c r="B167" s="12" t="s">
-        <v>665</v>
-      </c>
       <c r="C167" s="13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D167" s="13" t="s">
         <v>42</v>
@@ -29443,7 +29443,7 @@
         <v>128</v>
       </c>
       <c r="F167" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G167" s="13" t="s">
         <v>45</v>
@@ -29453,10 +29453,10 @@
         <v>46</v>
       </c>
       <c r="J167" s="27" t="s">
+        <v>665</v>
+      </c>
+      <c r="K167" s="13" t="s">
         <v>666</v>
-      </c>
-      <c r="K167" s="13" t="s">
-        <v>667</v>
       </c>
       <c r="L167" s="31" t="s">
         <v>132</v>
@@ -29517,13 +29517,13 @@
     </row>
     <row r="168" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D168" s="13" t="s">
         <v>42</v>
@@ -29532,7 +29532,7 @@
         <v>128</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G168" s="13" t="s">
         <v>45</v>
@@ -29545,7 +29545,7 @@
         <v>58</v>
       </c>
       <c r="K168" s="12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L168" s="31" t="s">
         <v>132</v>
@@ -29606,13 +29606,13 @@
     </row>
     <row r="169" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B169" s="12" t="s">
         <v>670</v>
       </c>
-      <c r="B169" s="12" t="s">
+      <c r="C169" s="13" t="s">
         <v>671</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>672</v>
       </c>
       <c r="D169" s="13" t="s">
         <v>42</v>
@@ -29621,7 +29621,7 @@
         <v>128</v>
       </c>
       <c r="F169" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G169" s="13" t="s">
         <v>45</v>
@@ -29695,13 +29695,13 @@
     </row>
     <row r="170" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="B170" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="B170" s="12" t="s">
+      <c r="C170" s="13" t="s">
         <v>674</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>675</v>
       </c>
       <c r="D170" s="13" t="s">
         <v>42</v>
@@ -29784,13 +29784,13 @@
     </row>
     <row r="171" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="B171" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="B171" s="12" t="s">
+      <c r="C171" s="13" t="s">
         <v>677</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>678</v>
       </c>
       <c r="D171" s="13" t="s">
         <v>42</v>
@@ -29873,13 +29873,13 @@
     </row>
     <row r="172" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="B172" s="12" t="s">
         <v>679</v>
       </c>
-      <c r="B172" s="12" t="s">
+      <c r="C172" s="13" t="s">
         <v>680</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>681</v>
       </c>
       <c r="D172" s="13" t="s">
         <v>42</v>
@@ -29962,13 +29962,13 @@
     </row>
     <row r="173" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B173" s="12" t="s">
         <v>682</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="C173" s="13" t="s">
         <v>683</v>
-      </c>
-      <c r="C173" s="13" t="s">
-        <v>684</v>
       </c>
       <c r="D173" s="13" t="s">
         <v>42</v>
@@ -29987,10 +29987,10 @@
         <v>46</v>
       </c>
       <c r="J173" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K173" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L173" s="31" t="s">
         <v>132</v>
@@ -30051,13 +30051,13 @@
     </row>
     <row r="174" spans="1:39" s="28" customFormat="1" ht="127.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="B174" s="12" t="s">
         <v>686</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="C174" s="13" t="s">
         <v>687</v>
-      </c>
-      <c r="C174" s="13" t="s">
-        <v>688</v>
       </c>
       <c r="D174" s="13" t="s">
         <v>42</v>
@@ -30066,7 +30066,7 @@
         <v>128</v>
       </c>
       <c r="F174" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G174" s="12" t="s">
         <v>45</v>
@@ -30076,7 +30076,7 @@
         <v>46</v>
       </c>
       <c r="J174" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K174" s="12" t="s">
         <v>148</v>
@@ -30140,13 +30140,13 @@
     </row>
     <row r="175" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="B175" s="12" t="s">
         <v>691</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="C175" s="13" t="s">
         <v>692</v>
-      </c>
-      <c r="C175" s="13" t="s">
-        <v>693</v>
       </c>
       <c r="D175" s="13" t="s">
         <v>42</v>
@@ -30165,7 +30165,7 @@
         <v>46</v>
       </c>
       <c r="J175" s="27" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K175" s="13" t="s">
         <v>74</v>
@@ -30229,13 +30229,13 @@
     </row>
     <row r="176" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="B176" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="B176" s="12" t="s">
+      <c r="C176" s="13" t="s">
         <v>696</v>
-      </c>
-      <c r="C176" s="13" t="s">
-        <v>697</v>
       </c>
       <c r="D176" s="13" t="s">
         <v>42</v>
@@ -30318,13 +30318,13 @@
     </row>
     <row r="177" spans="1:39" s="28" customFormat="1" ht="127.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="B177" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="B177" s="12" t="s">
+      <c r="C177" s="13" t="s">
         <v>699</v>
-      </c>
-      <c r="C177" s="13" t="s">
-        <v>700</v>
       </c>
       <c r="D177" s="13" t="s">
         <v>42</v>
@@ -30343,7 +30343,7 @@
         <v>46</v>
       </c>
       <c r="J177" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K177" s="13" t="s">
         <v>64</v>
@@ -30407,13 +30407,13 @@
     </row>
     <row r="178" spans="1:39" s="28" customFormat="1" ht="130.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="B178" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="B178" s="12" t="s">
+      <c r="C178" s="13" t="s">
         <v>702</v>
-      </c>
-      <c r="C178" s="13" t="s">
-        <v>703</v>
       </c>
       <c r="D178" s="13" t="s">
         <v>42</v>
@@ -30422,7 +30422,7 @@
         <v>128</v>
       </c>
       <c r="F178" s="12" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G178" s="12" t="s">
         <v>45</v>
@@ -30496,13 +30496,13 @@
     </row>
     <row r="179" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="B179" s="12" t="s">
         <v>705</v>
       </c>
-      <c r="B179" s="12" t="s">
+      <c r="C179" s="13" t="s">
         <v>706</v>
-      </c>
-      <c r="C179" s="13" t="s">
-        <v>707</v>
       </c>
       <c r="D179" s="13" t="s">
         <v>42</v>
@@ -30521,7 +30521,7 @@
         <v>46</v>
       </c>
       <c r="J179" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K179" s="13" t="s">
         <v>148</v>
@@ -30585,13 +30585,13 @@
     </row>
     <row r="180" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="B180" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="B180" s="12" t="s">
+      <c r="C180" s="13" t="s">
         <v>709</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>710</v>
       </c>
       <c r="D180" s="13" t="s">
         <v>42</v>
@@ -30674,13 +30674,13 @@
     </row>
     <row r="181" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="B181" s="12" t="s">
         <v>711</v>
       </c>
-      <c r="B181" s="12" t="s">
+      <c r="C181" s="13" t="s">
         <v>712</v>
-      </c>
-      <c r="C181" s="13" t="s">
-        <v>713</v>
       </c>
       <c r="D181" s="13" t="s">
         <v>42</v>
@@ -30699,7 +30699,7 @@
         <v>46</v>
       </c>
       <c r="J181" s="27" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K181" s="12" t="s">
         <v>69</v>
@@ -30763,13 +30763,13 @@
     </row>
     <row r="182" spans="1:39" s="28" customFormat="1" ht="127.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="B182" s="12" t="s">
         <v>715</v>
       </c>
-      <c r="B182" s="12" t="s">
+      <c r="C182" s="13" t="s">
         <v>716</v>
-      </c>
-      <c r="C182" s="13" t="s">
-        <v>717</v>
       </c>
       <c r="D182" s="13" t="s">
         <v>42</v>
@@ -30778,7 +30778,7 @@
         <v>128</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G182" s="12" t="s">
         <v>45</v>
@@ -30788,7 +30788,7 @@
         <v>46</v>
       </c>
       <c r="J182" s="27" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K182" s="13" t="s">
         <v>118</v>
@@ -30852,13 +30852,13 @@
     </row>
     <row r="183" spans="1:39" s="28" customFormat="1" ht="133.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="B183" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="B183" s="12" t="s">
+      <c r="C183" s="13" t="s">
         <v>720</v>
-      </c>
-      <c r="C183" s="13" t="s">
-        <v>721</v>
       </c>
       <c r="D183" s="13" t="s">
         <v>42</v>
@@ -30867,7 +30867,7 @@
         <v>128</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G183" s="12" t="s">
         <v>45</v>
@@ -30941,13 +30941,13 @@
     </row>
     <row r="184" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="B184" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="B184" s="12" t="s">
+      <c r="C184" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="C184" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="D184" s="13" t="s">
         <v>42</v>
@@ -31030,13 +31030,13 @@
     </row>
     <row r="185" spans="1:39" s="28" customFormat="1" ht="127.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="B185" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="B185" s="12" t="s">
+      <c r="C185" s="13" t="s">
         <v>726</v>
-      </c>
-      <c r="C185" s="13" t="s">
-        <v>727</v>
       </c>
       <c r="D185" s="13" t="s">
         <v>42</v>
@@ -31045,7 +31045,7 @@
         <v>128</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G185" s="12" t="s">
         <v>45</v>
@@ -31055,7 +31055,7 @@
         <v>46</v>
       </c>
       <c r="J185" s="27" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K185" s="13" t="s">
         <v>118</v>
@@ -31119,13 +31119,13 @@
     </row>
     <row r="186" spans="1:39" s="28" customFormat="1" ht="123.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="B186" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="B186" s="12" t="s">
-        <v>729</v>
-      </c>
       <c r="C186" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D186" s="13" t="s">
         <v>42</v>
@@ -31144,10 +31144,10 @@
         <v>46</v>
       </c>
       <c r="J186" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="K186" s="13" t="s">
         <v>730</v>
-      </c>
-      <c r="K186" s="13" t="s">
-        <v>731</v>
       </c>
       <c r="L186" s="31" t="s">
         <v>132</v>
@@ -31208,13 +31208,13 @@
     </row>
     <row r="187" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="B187" s="12" t="s">
         <v>732</v>
       </c>
-      <c r="B187" s="12" t="s">
-        <v>733</v>
-      </c>
       <c r="C187" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D187" s="13" t="s">
         <v>42</v>
@@ -31233,7 +31233,7 @@
         <v>46</v>
       </c>
       <c r="J187" s="27" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K187" s="13" t="s">
         <v>64</v>
@@ -31297,13 +31297,13 @@
     </row>
     <row r="188" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="B188" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="B188" s="12" t="s">
+      <c r="C188" s="13" t="s">
         <v>736</v>
-      </c>
-      <c r="C188" s="13" t="s">
-        <v>737</v>
       </c>
       <c r="D188" s="13" t="s">
         <v>42</v>
@@ -31322,7 +31322,7 @@
         <v>46</v>
       </c>
       <c r="J188" s="27" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K188" s="12" t="s">
         <v>114</v>
@@ -31386,13 +31386,13 @@
     </row>
     <row r="189" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="B189" s="12" t="s">
         <v>739</v>
       </c>
-      <c r="B189" s="12" t="s">
+      <c r="C189" s="13" t="s">
         <v>740</v>
-      </c>
-      <c r="C189" s="13" t="s">
-        <v>741</v>
       </c>
       <c r="D189" s="13" t="s">
         <v>42</v>
@@ -31411,7 +31411,7 @@
         <v>46</v>
       </c>
       <c r="J189" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K189" s="13" t="s">
         <v>118</v>
@@ -31475,13 +31475,13 @@
     </row>
     <row r="190" spans="1:39" s="28" customFormat="1" ht="127.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="B190" s="12" t="s">
         <v>742</v>
       </c>
-      <c r="B190" s="12" t="s">
+      <c r="C190" s="13" t="s">
         <v>743</v>
-      </c>
-      <c r="C190" s="13" t="s">
-        <v>744</v>
       </c>
       <c r="D190" s="13" t="s">
         <v>42</v>
@@ -31500,7 +31500,7 @@
         <v>46</v>
       </c>
       <c r="J190" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K190" s="13" t="s">
         <v>64</v>
@@ -31564,13 +31564,13 @@
     </row>
     <row r="191" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="B191" s="12" t="s">
         <v>745</v>
       </c>
-      <c r="B191" s="12" t="s">
+      <c r="C191" s="13" t="s">
         <v>746</v>
-      </c>
-      <c r="C191" s="13" t="s">
-        <v>747</v>
       </c>
       <c r="D191" s="13" t="s">
         <v>42</v>
@@ -31653,13 +31653,13 @@
     </row>
     <row r="192" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="B192" s="12" t="s">
         <v>748</v>
       </c>
-      <c r="B192" s="12" t="s">
+      <c r="C192" s="13" t="s">
         <v>749</v>
-      </c>
-      <c r="C192" s="13" t="s">
-        <v>750</v>
       </c>
       <c r="D192" s="13" t="s">
         <v>42</v>
@@ -31742,13 +31742,13 @@
     </row>
     <row r="193" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="B193" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="B193" s="12" t="s">
+      <c r="C193" s="13" t="s">
         <v>752</v>
-      </c>
-      <c r="C193" s="13" t="s">
-        <v>753</v>
       </c>
       <c r="D193" s="13" t="s">
         <v>42</v>
@@ -31831,13 +31831,13 @@
     </row>
     <row r="194" spans="1:39" s="28" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="B194" s="12" t="s">
         <v>754</v>
       </c>
-      <c r="B194" s="12" t="s">
+      <c r="C194" s="13" t="s">
         <v>755</v>
-      </c>
-      <c r="C194" s="13" t="s">
-        <v>756</v>
       </c>
       <c r="D194" s="13" t="s">
         <v>42</v>
@@ -31920,13 +31920,13 @@
     </row>
     <row r="195" spans="1:39" s="28" customFormat="1" ht="112.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="B195" s="12" t="s">
         <v>757</v>
       </c>
-      <c r="B195" s="12" t="s">
+      <c r="C195" s="13" t="s">
         <v>758</v>
-      </c>
-      <c r="C195" s="13" t="s">
-        <v>759</v>
       </c>
       <c r="D195" s="13" t="s">
         <v>42</v>
@@ -31945,10 +31945,10 @@
         <v>46</v>
       </c>
       <c r="J195" s="27" t="s">
+        <v>759</v>
+      </c>
+      <c r="K195" s="13" t="s">
         <v>760</v>
-      </c>
-      <c r="K195" s="13" t="s">
-        <v>761</v>
       </c>
       <c r="L195" s="31" t="s">
         <v>132</v>
@@ -32009,13 +32009,13 @@
     </row>
     <row r="196" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="B196" s="12" t="s">
         <v>762</v>
       </c>
-      <c r="B196" s="12" t="s">
+      <c r="C196" s="13" t="s">
         <v>763</v>
-      </c>
-      <c r="C196" s="13" t="s">
-        <v>764</v>
       </c>
       <c r="D196" s="13" t="s">
         <v>42</v>
@@ -32034,10 +32034,10 @@
         <v>46</v>
       </c>
       <c r="J196" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="K196" s="13" t="s">
         <v>765</v>
-      </c>
-      <c r="K196" s="13" t="s">
-        <v>766</v>
       </c>
       <c r="L196" s="31" t="s">
         <v>132</v>
@@ -32098,13 +32098,13 @@
     </row>
     <row r="197" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="B197" s="12" t="s">
         <v>767</v>
       </c>
-      <c r="B197" s="12" t="s">
+      <c r="C197" s="13" t="s">
         <v>768</v>
-      </c>
-      <c r="C197" s="13" t="s">
-        <v>769</v>
       </c>
       <c r="D197" s="13" t="s">
         <v>42</v>
@@ -32187,13 +32187,13 @@
     </row>
     <row r="198" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B198" s="12" t="s">
         <v>770</v>
       </c>
-      <c r="B198" s="12" t="s">
-        <v>771</v>
-      </c>
       <c r="C198" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D198" s="13" t="s">
         <v>42</v>
@@ -32276,13 +32276,13 @@
     </row>
     <row r="199" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="B199" s="12" t="s">
         <v>772</v>
       </c>
-      <c r="B199" s="12" t="s">
+      <c r="C199" s="13" t="s">
         <v>773</v>
-      </c>
-      <c r="C199" s="13" t="s">
-        <v>774</v>
       </c>
       <c r="D199" s="13" t="s">
         <v>42</v>
@@ -32301,10 +32301,10 @@
         <v>46</v>
       </c>
       <c r="J199" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="K199" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L199" s="19" t="s">
         <v>49</v>
@@ -32365,13 +32365,13 @@
     </row>
     <row r="200" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="B200" s="12" t="s">
         <v>776</v>
       </c>
-      <c r="B200" s="12" t="s">
+      <c r="C200" s="13" t="s">
         <v>777</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>778</v>
       </c>
       <c r="D200" s="13" t="s">
         <v>42</v>
@@ -32454,13 +32454,13 @@
     </row>
     <row r="201" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="B201" s="12" t="s">
         <v>779</v>
       </c>
-      <c r="B201" s="12" t="s">
+      <c r="C201" s="13" t="s">
         <v>780</v>
-      </c>
-      <c r="C201" s="13" t="s">
-        <v>781</v>
       </c>
       <c r="D201" s="13" t="s">
         <v>42</v>
@@ -32543,13 +32543,13 @@
     </row>
     <row r="202" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="B202" s="12" t="s">
         <v>782</v>
       </c>
-      <c r="B202" s="12" t="s">
+      <c r="C202" s="13" t="s">
         <v>783</v>
-      </c>
-      <c r="C202" s="13" t="s">
-        <v>784</v>
       </c>
       <c r="D202" s="13" t="s">
         <v>42</v>
@@ -32632,13 +32632,13 @@
     </row>
     <row r="203" spans="1:39" s="28" customFormat="1" ht="127.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="B203" s="12" t="s">
         <v>785</v>
       </c>
-      <c r="B203" s="12" t="s">
-        <v>786</v>
-      </c>
       <c r="C203" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D203" s="13" t="s">
         <v>42</v>
@@ -32657,7 +32657,7 @@
         <v>46</v>
       </c>
       <c r="J203" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K203" s="13" t="s">
         <v>64</v>
@@ -32721,13 +32721,13 @@
     </row>
     <row r="204" spans="1:39" s="28" customFormat="1" ht="127.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="B204" s="12" t="s">
         <v>787</v>
       </c>
-      <c r="B204" s="12" t="s">
-        <v>788</v>
-      </c>
       <c r="C204" s="13" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D204" s="13" t="s">
         <v>42</v>
@@ -32746,7 +32746,7 @@
         <v>46</v>
       </c>
       <c r="J204" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K204" s="13" t="s">
         <v>64</v>
@@ -32810,13 +32810,13 @@
     </row>
     <row r="205" spans="1:39" s="28" customFormat="1" ht="127.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="B205" s="12" t="s">
         <v>789</v>
       </c>
-      <c r="B205" s="12" t="s">
-        <v>790</v>
-      </c>
       <c r="C205" s="13" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D205" s="13" t="s">
         <v>42</v>
@@ -32835,10 +32835,10 @@
         <v>46</v>
       </c>
       <c r="J205" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="K205" s="13" t="s">
         <v>791</v>
-      </c>
-      <c r="K205" s="13" t="s">
-        <v>792</v>
       </c>
       <c r="L205" s="31" t="s">
         <v>132</v>
@@ -32899,13 +32899,13 @@
     </row>
     <row r="206" spans="1:39" s="28" customFormat="1" ht="127.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="B206" s="12" t="s">
         <v>793</v>
       </c>
-      <c r="B206" s="12" t="s">
+      <c r="C206" s="13" t="s">
         <v>794</v>
-      </c>
-      <c r="C206" s="13" t="s">
-        <v>795</v>
       </c>
       <c r="D206" s="13" t="s">
         <v>42</v>
@@ -32924,7 +32924,7 @@
         <v>46</v>
       </c>
       <c r="J206" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K206" s="13" t="s">
         <v>148</v>
@@ -32988,13 +32988,13 @@
     </row>
     <row r="207" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="B207" s="12" t="s">
         <v>797</v>
       </c>
-      <c r="B207" s="12" t="s">
-        <v>798</v>
-      </c>
       <c r="C207" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D207" s="13" t="s">
         <v>42</v>
@@ -33003,7 +33003,7 @@
         <v>128</v>
       </c>
       <c r="F207" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G207" s="13" t="s">
         <v>45</v>
@@ -33077,22 +33077,22 @@
     </row>
     <row r="208" spans="1:39" s="28" customFormat="1" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="B208" s="12" t="s">
         <v>799</v>
       </c>
-      <c r="B208" s="12" t="s">
-        <v>800</v>
-      </c>
       <c r="C208" s="13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D208" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E208" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F208" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G208" s="13" t="s">
         <v>45</v>
@@ -33102,13 +33102,13 @@
         <v>46</v>
       </c>
       <c r="J208" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K208" s="13" t="s">
         <v>118</v>
       </c>
       <c r="L208" s="31" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M208" s="12"/>
       <c r="N208" s="13" t="s">
@@ -33166,13 +33166,13 @@
     </row>
     <row r="209" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="B209" s="12" t="s">
         <v>802</v>
       </c>
-      <c r="B209" s="12" t="s">
+      <c r="C209" s="13" t="s">
         <v>803</v>
-      </c>
-      <c r="C209" s="13" t="s">
-        <v>804</v>
       </c>
       <c r="D209" s="13" t="s">
         <v>42</v>
@@ -33181,7 +33181,7 @@
         <v>128</v>
       </c>
       <c r="F209" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G209" s="12" t="s">
         <v>45</v>
@@ -33191,13 +33191,13 @@
         <v>46</v>
       </c>
       <c r="J209" s="27" t="s">
-        <v>805</v>
+        <v>859</v>
       </c>
       <c r="K209" s="12" t="s">
         <v>48</v>
       </c>
       <c r="L209" s="19" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="M209" s="12"/>
       <c r="N209" s="13" t="s">
@@ -33255,13 +33255,13 @@
     </row>
     <row r="210" spans="1:39" s="28" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D210" s="13" t="s">
         <v>42</v>
@@ -33270,7 +33270,7 @@
         <v>128</v>
       </c>
       <c r="F210" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G210" s="13" t="s">
         <v>45</v>
@@ -33280,13 +33280,13 @@
         <v>46</v>
       </c>
       <c r="J210" s="27" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="K210" s="13" t="s">
         <v>114</v>
       </c>
       <c r="L210" s="31" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M210" s="12"/>
       <c r="N210" s="13" t="s">
@@ -33344,13 +33344,13 @@
     </row>
     <row r="211" spans="1:39" s="28" customFormat="1" ht="128.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="C211" s="13" t="s">
         <v>811</v>
-      </c>
-      <c r="B211" s="12" t="s">
-        <v>812</v>
-      </c>
-      <c r="C211" s="13" t="s">
-        <v>813</v>
       </c>
       <c r="D211" s="13" t="s">
         <v>42</v>
@@ -33359,7 +33359,7 @@
         <v>128</v>
       </c>
       <c r="F211" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G211" s="13" t="s">
         <v>45</v>
@@ -33433,13 +33433,13 @@
     </row>
     <row r="212" spans="1:39" s="28" customFormat="1" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D212" s="13" t="s">
         <v>42</v>
@@ -33448,7 +33448,7 @@
         <v>128</v>
       </c>
       <c r="F212" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G212" s="13" t="s">
         <v>45</v>
@@ -33458,7 +33458,7 @@
         <v>46</v>
       </c>
       <c r="J212" s="27" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="K212" s="12" t="s">
         <v>131</v>
@@ -33522,13 +33522,13 @@
     </row>
     <row r="213" spans="1:39" s="28" customFormat="1" ht="133.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D213" s="13" t="s">
         <v>42</v>
@@ -33537,7 +33537,7 @@
         <v>128</v>
       </c>
       <c r="F213" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G213" s="13" t="s">
         <v>45</v>
@@ -33611,13 +33611,13 @@
     </row>
     <row r="214" spans="1:39" s="28" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="C214" s="13" t="s">
         <v>817</v>
-      </c>
-      <c r="B214" s="12" t="s">
-        <v>818</v>
-      </c>
-      <c r="C214" s="13" t="s">
-        <v>819</v>
       </c>
       <c r="D214" s="13" t="s">
         <v>42</v>
@@ -33626,7 +33626,7 @@
         <v>128</v>
       </c>
       <c r="F214" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G214" s="13" t="s">
         <v>45</v>
@@ -33636,7 +33636,7 @@
         <v>46</v>
       </c>
       <c r="J214" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K214" s="13" t="s">
         <v>118</v>
@@ -33700,13 +33700,13 @@
     </row>
     <row r="215" spans="1:39" s="28" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D215" s="13" t="s">
         <v>42</v>
@@ -33715,7 +33715,7 @@
         <v>128</v>
       </c>
       <c r="F215" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G215" s="13" t="s">
         <v>45</v>
@@ -33725,7 +33725,7 @@
         <v>46</v>
       </c>
       <c r="J215" s="27" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="K215" s="12" t="s">
         <v>131</v>
@@ -33789,13 +33789,13 @@
     </row>
     <row r="216" spans="1:39" s="28" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="C216" s="13" t="s">
         <v>821</v>
-      </c>
-      <c r="B216" s="12" t="s">
-        <v>822</v>
-      </c>
-      <c r="C216" s="13" t="s">
-        <v>823</v>
       </c>
       <c r="D216" s="13" t="s">
         <v>42</v>
@@ -33804,7 +33804,7 @@
         <v>128</v>
       </c>
       <c r="F216" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G216" s="13" t="s">
         <v>45</v>
@@ -33878,13 +33878,13 @@
     </row>
     <row r="217" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D217" s="13" t="s">
         <v>42</v>
@@ -33893,7 +33893,7 @@
         <v>128</v>
       </c>
       <c r="F217" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G217" s="13" t="s">
         <v>45</v>
@@ -33903,7 +33903,7 @@
         <v>46</v>
       </c>
       <c r="J217" s="27" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="K217" s="12" t="s">
         <v>131</v>
@@ -33967,13 +33967,13 @@
     </row>
     <row r="218" spans="1:39" s="28" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D218" s="13" t="s">
         <v>42</v>
@@ -33982,7 +33982,7 @@
         <v>128</v>
       </c>
       <c r="F218" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G218" s="13" t="s">
         <v>45</v>
@@ -34056,13 +34056,13 @@
     </row>
     <row r="219" spans="1:39" s="28" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D219" s="13" t="s">
         <v>42</v>
@@ -34071,7 +34071,7 @@
         <v>128</v>
       </c>
       <c r="F219" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G219" s="13" t="s">
         <v>45</v>
@@ -34081,7 +34081,7 @@
         <v>46</v>
       </c>
       <c r="J219" s="27" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="K219" s="12" t="s">
         <v>48</v>
@@ -34145,13 +34145,13 @@
     </row>
     <row r="220" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="C220" s="13" t="s">
         <v>828</v>
-      </c>
-      <c r="B220" s="12" t="s">
-        <v>829</v>
-      </c>
-      <c r="C220" s="13" t="s">
-        <v>830</v>
       </c>
       <c r="D220" s="13" t="s">
         <v>42</v>
@@ -34160,7 +34160,7 @@
         <v>128</v>
       </c>
       <c r="F220" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G220" s="12" t="s">
         <v>45</v>
@@ -34170,7 +34170,7 @@
         <v>46</v>
       </c>
       <c r="J220" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K220" s="13" t="s">
         <v>148</v>
@@ -34234,13 +34234,13 @@
     </row>
     <row r="221" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D221" s="13" t="s">
         <v>42</v>
@@ -34249,7 +34249,7 @@
         <v>128</v>
       </c>
       <c r="F221" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G221" s="12" t="s">
         <v>45</v>
@@ -34259,7 +34259,7 @@
         <v>46</v>
       </c>
       <c r="J221" s="27" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="K221" s="12" t="s">
         <v>48</v>
@@ -34323,13 +34323,13 @@
     </row>
     <row r="222" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="B222" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="C222" s="13" t="s">
         <v>834</v>
-      </c>
-      <c r="B222" s="12" t="s">
-        <v>835</v>
-      </c>
-      <c r="C222" s="13" t="s">
-        <v>836</v>
       </c>
       <c r="D222" s="13" t="s">
         <v>42</v>
@@ -34338,7 +34338,7 @@
         <v>128</v>
       </c>
       <c r="F222" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G222" s="12" t="s">
         <v>45</v>
@@ -34348,10 +34348,10 @@
         <v>46</v>
       </c>
       <c r="J222" s="27" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="K222" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L222" s="19" t="s">
         <v>49</v>
@@ -34412,19 +34412,19 @@
     </row>
     <row r="223" spans="1:39" s="28" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="C223" s="13" t="s">
         <v>838</v>
-      </c>
-      <c r="B223" s="12" t="s">
-        <v>839</v>
-      </c>
-      <c r="C223" s="13" t="s">
-        <v>840</v>
       </c>
       <c r="D223" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F223" s="12" t="s">
         <v>136</v>
@@ -34501,19 +34501,19 @@
     </row>
     <row r="224" spans="1:39" s="28" customFormat="1" ht="115.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="C224" s="13" t="s">
         <v>841</v>
-      </c>
-      <c r="B224" s="12" t="s">
-        <v>842</v>
-      </c>
-      <c r="C224" s="13" t="s">
-        <v>843</v>
       </c>
       <c r="D224" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F224" s="12" t="s">
         <v>129</v>
@@ -34526,7 +34526,7 @@
         <v>46</v>
       </c>
       <c r="J224" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K224" s="12" t="s">
         <v>69</v>
@@ -34590,19 +34590,19 @@
     </row>
     <row r="225" spans="1:39" s="28" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="C225" s="13" t="s">
         <v>844</v>
-      </c>
-      <c r="B225" s="12" t="s">
-        <v>845</v>
-      </c>
-      <c r="C225" s="13" t="s">
-        <v>846</v>
       </c>
       <c r="D225" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E225" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F225" s="13" t="s">
         <v>129</v>
@@ -34615,13 +34615,13 @@
         <v>46</v>
       </c>
       <c r="J225" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K225" s="13" t="s">
         <v>118</v>
       </c>
       <c r="L225" s="31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M225" s="12"/>
       <c r="N225" s="13" t="s">
@@ -34679,19 +34679,19 @@
     </row>
     <row r="226" spans="1:39" s="28" customFormat="1" ht="124.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="B226" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="C226" s="13" t="s">
         <v>847</v>
-      </c>
-      <c r="B226" s="12" t="s">
-        <v>848</v>
-      </c>
-      <c r="C226" s="13" t="s">
-        <v>849</v>
       </c>
       <c r="D226" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E226" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F226" s="12" t="s">
         <v>129</v>
@@ -34768,22 +34768,22 @@
     </row>
     <row r="227" spans="1:39" s="28" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D227" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E227" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F227" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G227" s="13" t="s">
         <v>45</v>
@@ -34793,13 +34793,13 @@
         <v>46</v>
       </c>
       <c r="J227" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K227" s="13" t="s">
         <v>118</v>
       </c>
       <c r="L227" s="31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M227" s="12"/>
       <c r="N227" s="13" t="s">
@@ -34857,13 +34857,13 @@
     </row>
     <row r="228" spans="1:39" s="28" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>851</v>
+      </c>
+      <c r="C228" s="13" t="s">
         <v>852</v>
-      </c>
-      <c r="B228" s="12" t="s">
-        <v>853</v>
-      </c>
-      <c r="C228" s="13" t="s">
-        <v>854</v>
       </c>
       <c r="D228" s="13" t="s">
         <v>42</v>
@@ -34872,7 +34872,7 @@
         <v>43</v>
       </c>
       <c r="F228" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G228" s="12" t="s">
         <v>45</v>
@@ -34882,7 +34882,7 @@
         <v>46</v>
       </c>
       <c r="J228" s="27" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="K228" s="12" t="s">
         <v>148</v>
@@ -34946,22 +34946,22 @@
     </row>
     <row r="229" spans="1:39" s="28" customFormat="1" ht="126.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="C229" s="13" t="s">
         <v>856</v>
-      </c>
-      <c r="B229" s="12" t="s">
-        <v>857</v>
-      </c>
-      <c r="C229" s="13" t="s">
-        <v>858</v>
       </c>
       <c r="D229" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E229" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F229" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G229" s="13" t="s">
         <v>45</v>
@@ -34971,13 +34971,13 @@
         <v>46</v>
       </c>
       <c r="J229" s="27" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="K229" s="13" t="s">
         <v>69</v>
       </c>
       <c r="L229" s="31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M229" s="12"/>
       <c r="N229" s="13" t="s">
